--- a/data/inventoryData.xlsx
+++ b/data/inventoryData.xlsx
@@ -518,7 +518,7 @@
 
 <file path=xl/xmlMaps.xml><?xml version="1.0" encoding="utf-8"?>
 <MapInfo xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" SelectionNamespaces="">
-  <Schema ID="Schema2">
+  <Schema ID="Schema3">
     <xs:schema xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns="">
       <!-- define strings -->
       <xs:simpleType name="stringType">
@@ -526,7 +526,7 @@
       </xs:simpleType>
       <!-- define integers -->
       <xs:simpleType name="intType">
-        <xs:restriction base="xs:positiveInteger"/>
+        <xs:restriction base="xs:integer"/>
       </xs:simpleType>
       <!-- define a product -->
       <xs:complexType name="productType">
@@ -563,14 +563,14 @@
       <!-- define an inventory -->
       <xs:complexType name="inventoryType">
         <xs:sequence>
-          <xs:element name="producty" type="productType" minOccurs="1" maxOccurs="unbounded"/>
+          <xs:element name="product" type="productType" minOccurs="1" maxOccurs="unbounded"/>
         </xs:sequence>
       </xs:complexType>
       <!-- define the root -->
       <xs:element name="inventory" type="inventoryType"/>
     </xs:schema>
   </Schema>
-  <Map ID="4" Name="inventory_Map" RootElement="inventory" SchemaID="Schema2" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true"/>
+  <Map ID="5" Name="inventory_Map" RootElement="inventory" SchemaID="Schema3" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true"/>
 </MapInfo>
 </file>
 
@@ -579,86 +579,86 @@
   <autoFilter ref="A1:AA28"/>
   <tableColumns count="27">
     <tableColumn id="1" uniqueName="description" name="Item Description " dataDxfId="23">
-      <xmlColumnPr mapId="4" xpath="/inventory/producty/description" xmlDataType="string"/>
+      <xmlColumnPr mapId="5" xpath="/inventory/product/description" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="2" uniqueName="minQuantity" name="Min. Quant." dataDxfId="22">
-      <xmlColumnPr mapId="4" xpath="/inventory/producty/minQuantity" xmlDataType="positiveInteger"/>
+      <xmlColumnPr mapId="5" xpath="/inventory/product/minQuantity" xmlDataType="integer"/>
     </tableColumn>
     <tableColumn id="3" uniqueName="week1" name="W1" dataDxfId="21">
-      <xmlColumnPr mapId="4" xpath="/inventory/producty/week1" xmlDataType="positiveInteger"/>
+      <xmlColumnPr mapId="5" xpath="/inventory/product/week1" xmlDataType="integer"/>
     </tableColumn>
     <tableColumn id="4" uniqueName="week2" name="W2" dataDxfId="20">
-      <xmlColumnPr mapId="4" xpath="/inventory/producty/week2" xmlDataType="positiveInteger"/>
+      <xmlColumnPr mapId="5" xpath="/inventory/product/week2" xmlDataType="integer"/>
     </tableColumn>
     <tableColumn id="5" uniqueName="week3" name="W3" dataDxfId="19">
-      <xmlColumnPr mapId="4" xpath="/inventory/producty/week3" xmlDataType="positiveInteger"/>
+      <xmlColumnPr mapId="5" xpath="/inventory/product/week3" xmlDataType="integer"/>
     </tableColumn>
     <tableColumn id="6" uniqueName="week4" name="W4" dataDxfId="18">
-      <xmlColumnPr mapId="4" xpath="/inventory/producty/week4" xmlDataType="positiveInteger"/>
+      <xmlColumnPr mapId="5" xpath="/inventory/product/week4" xmlDataType="integer"/>
     </tableColumn>
     <tableColumn id="7" uniqueName="week5" name="W5" dataDxfId="17">
-      <xmlColumnPr mapId="4" xpath="/inventory/producty/week5" xmlDataType="positiveInteger"/>
+      <xmlColumnPr mapId="5" xpath="/inventory/product/week5" xmlDataType="integer"/>
     </tableColumn>
     <tableColumn id="8" uniqueName="week6" name="W6" dataDxfId="16">
-      <xmlColumnPr mapId="4" xpath="/inventory/producty/week6" xmlDataType="positiveInteger"/>
+      <xmlColumnPr mapId="5" xpath="/inventory/product/week6" xmlDataType="integer"/>
     </tableColumn>
     <tableColumn id="9" uniqueName="week7" name="W7" dataDxfId="15">
-      <xmlColumnPr mapId="4" xpath="/inventory/producty/week7" xmlDataType="positiveInteger"/>
+      <xmlColumnPr mapId="5" xpath="/inventory/product/week7" xmlDataType="integer"/>
     </tableColumn>
     <tableColumn id="10" uniqueName="week8" name="W8" dataDxfId="14">
-      <xmlColumnPr mapId="4" xpath="/inventory/producty/week8" xmlDataType="positiveInteger"/>
+      <xmlColumnPr mapId="5" xpath="/inventory/product/week8" xmlDataType="integer"/>
     </tableColumn>
     <tableColumn id="11" uniqueName="week9" name="W9" dataDxfId="13">
-      <xmlColumnPr mapId="4" xpath="/inventory/producty/week9" xmlDataType="positiveInteger"/>
+      <xmlColumnPr mapId="5" xpath="/inventory/product/week9" xmlDataType="integer"/>
     </tableColumn>
     <tableColumn id="12" uniqueName="week10" name="W10" dataDxfId="12">
-      <xmlColumnPr mapId="4" xpath="/inventory/producty/week10" xmlDataType="positiveInteger"/>
+      <xmlColumnPr mapId="5" xpath="/inventory/product/week10" xmlDataType="integer"/>
     </tableColumn>
     <tableColumn id="13" uniqueName="week11" name="W11" dataDxfId="11">
-      <xmlColumnPr mapId="4" xpath="/inventory/producty/week11" xmlDataType="positiveInteger"/>
+      <xmlColumnPr mapId="5" xpath="/inventory/product/week11" xmlDataType="integer"/>
     </tableColumn>
     <tableColumn id="14" uniqueName="week12" name="W12" dataDxfId="10">
-      <xmlColumnPr mapId="4" xpath="/inventory/producty/week12" xmlDataType="positiveInteger"/>
+      <xmlColumnPr mapId="5" xpath="/inventory/product/week12" xmlDataType="integer"/>
     </tableColumn>
     <tableColumn id="15" uniqueName="week13" name="W13" dataDxfId="9">
-      <xmlColumnPr mapId="4" xpath="/inventory/producty/week13" xmlDataType="positiveInteger"/>
+      <xmlColumnPr mapId="5" xpath="/inventory/product/week13" xmlDataType="integer"/>
     </tableColumn>
     <tableColumn id="16" uniqueName="week14" name="W14" dataDxfId="8">
-      <xmlColumnPr mapId="4" xpath="/inventory/producty/week14" xmlDataType="positiveInteger"/>
+      <xmlColumnPr mapId="5" xpath="/inventory/product/week14" xmlDataType="integer"/>
     </tableColumn>
     <tableColumn id="17" uniqueName="week15" name="W15" dataDxfId="7">
-      <xmlColumnPr mapId="4" xpath="/inventory/producty/week15" xmlDataType="positiveInteger"/>
+      <xmlColumnPr mapId="5" xpath="/inventory/product/week15" xmlDataType="integer"/>
     </tableColumn>
     <tableColumn id="18" uniqueName="week16" name="W16" dataDxfId="6">
-      <xmlColumnPr mapId="4" xpath="/inventory/producty/week16" xmlDataType="positiveInteger"/>
+      <xmlColumnPr mapId="5" xpath="/inventory/product/week16" xmlDataType="integer"/>
     </tableColumn>
     <tableColumn id="19" uniqueName="week17" name="W17" dataDxfId="5">
-      <xmlColumnPr mapId="4" xpath="/inventory/producty/week17" xmlDataType="positiveInteger"/>
+      <xmlColumnPr mapId="5" xpath="/inventory/product/week17" xmlDataType="integer"/>
     </tableColumn>
     <tableColumn id="20" uniqueName="week18" name="W18" dataDxfId="4">
-      <xmlColumnPr mapId="4" xpath="/inventory/producty/week18" xmlDataType="positiveInteger"/>
+      <xmlColumnPr mapId="5" xpath="/inventory/product/week18" xmlDataType="integer"/>
     </tableColumn>
     <tableColumn id="21" uniqueName="week19" name="W19" dataDxfId="3">
-      <xmlColumnPr mapId="4" xpath="/inventory/producty/week19" xmlDataType="positiveInteger"/>
+      <xmlColumnPr mapId="5" xpath="/inventory/product/week19" xmlDataType="integer"/>
     </tableColumn>
     <tableColumn id="22" uniqueName="week20" name="W20" dataDxfId="2">
-      <xmlColumnPr mapId="4" xpath="/inventory/producty/week20" xmlDataType="positiveInteger"/>
+      <xmlColumnPr mapId="5" xpath="/inventory/product/week20" xmlDataType="integer"/>
     </tableColumn>
     <tableColumn id="23" uniqueName="salesTotal" name="Sales 20WTot">
       <calculatedColumnFormula>SUM(C2:V2)</calculatedColumnFormula>
-      <xmlColumnPr mapId="4" xpath="/inventory/producty/salesTotal" xmlDataType="positiveInteger"/>
+      <xmlColumnPr mapId="5" xpath="/inventory/product/salesTotal" xmlDataType="integer"/>
     </tableColumn>
     <tableColumn id="24" uniqueName="marketAPS" name="Mkt APS" dataDxfId="1">
-      <xmlColumnPr mapId="4" xpath="/inventory/producty/marketAPS" xmlDataType="positiveInteger"/>
+      <xmlColumnPr mapId="5" xpath="/inventory/product/marketAPS" xmlDataType="integer"/>
     </tableColumn>
     <tableColumn id="25" uniqueName="numStores" name="# of Strs" dataDxfId="0">
-      <xmlColumnPr mapId="4" xpath="/inventory/producty/numStores" xmlDataType="positiveInteger"/>
+      <xmlColumnPr mapId="5" xpath="/inventory/product/numStores" xmlDataType="integer"/>
     </tableColumn>
     <tableColumn id="26" uniqueName="monthlySales" name="Monthly Sales">
-      <xmlColumnPr mapId="4" xpath="/inventory/producty/monthlySales" xmlDataType="positiveInteger"/>
+      <xmlColumnPr mapId="5" xpath="/inventory/product/monthlySales" xmlDataType="integer"/>
     </tableColumn>
     <tableColumn id="27" uniqueName="currentPromotion" name="Current Promotions">
-      <xmlColumnPr mapId="4" xpath="/inventory/producty/currentPromotion" xmlDataType="string"/>
+      <xmlColumnPr mapId="5" xpath="/inventory/product/currentPromotion" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>

--- a/data/inventoryData.xlsx
+++ b/data/inventoryData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="22740" windowHeight="12060"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="88">
   <si>
     <t xml:space="preserve">Item Description </t>
   </si>
@@ -47,9 +47,6 @@
     <t># of Strs</t>
   </si>
   <si>
-    <t>Monthly Sales</t>
-  </si>
-  <si>
     <t>Snckrs 2pc KS 3.29z</t>
   </si>
   <si>
@@ -71,9 +68,6 @@
     <t>Kit Kat 1.5z</t>
   </si>
   <si>
-    <t>M&amp;M Peanut KS 1.74z</t>
-  </si>
-  <si>
     <t>Twix CrmlBr KS 3.02z</t>
   </si>
   <si>
@@ -192,13 +186,116 @@
   </si>
   <si>
     <t>Current Promotions</t>
+  </si>
+  <si>
+    <t>M&amp;M Peanut 1.74z</t>
+  </si>
+  <si>
+    <t>Retail Price</t>
+  </si>
+  <si>
+    <t>Not So Good Sales</t>
+  </si>
+  <si>
+    <t>Weekly Average Sales</t>
+  </si>
+  <si>
+    <t>Inventory</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Snickers</t>
+  </si>
+  <si>
+    <t>Hershey Almond</t>
+  </si>
+  <si>
+    <t>Peanut M&amp;M's</t>
+  </si>
+  <si>
+    <t>Reeses Peanut Butter Cup</t>
+  </si>
+  <si>
+    <t>Kit Kat (King Size)</t>
+  </si>
+  <si>
+    <t>Reeses Sticks (King Size)</t>
+  </si>
+  <si>
+    <t>Reeses Big Cup (King Size)</t>
+  </si>
+  <si>
+    <t>Snickers (King Size)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kit Kat </t>
+  </si>
+  <si>
+    <t>Reeses Peanut Butter Cup (King Size)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peanut M&amp;M's </t>
+  </si>
+  <si>
+    <t>Twix Caramel (King Size)</t>
+  </si>
+  <si>
+    <t>3 Musketeers</t>
+  </si>
+  <si>
+    <t>Fast Break (King Size)</t>
+  </si>
+  <si>
+    <t>Hershey Cookies N' Cream</t>
+  </si>
+  <si>
+    <t>Milky Way (King Size)</t>
+  </si>
+  <si>
+    <t>Ferrero Rochr</t>
+  </si>
+  <si>
+    <t>Hershey Cookies N' Cream (King Size)</t>
+  </si>
+  <si>
+    <t>Peanut Butter M&amp;M's (King Size)</t>
+  </si>
+  <si>
+    <t>Twix Peanut Butter (King Size)</t>
+  </si>
+  <si>
+    <t>Turtles Bar</t>
+  </si>
+  <si>
+    <t>Hershey Milk Chocolate (King Size)</t>
+  </si>
+  <si>
+    <t>Take 5 (King Size)</t>
+  </si>
+  <si>
+    <t>M&amp;M Chocolate Bar</t>
+  </si>
+  <si>
+    <t>Nestle Chunk (King Size)</t>
+  </si>
+  <si>
+    <t>Kit Kat Mini (King Size)</t>
+  </si>
+  <si>
+    <t>Twix Caramel</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -222,8 +319,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -242,6 +346,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF66"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -252,7 +362,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="25">
+  <cellStyleXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -278,15 +388,24 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="25" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="25" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="25" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="25">
+  <cellStyles count="26">
+    <cellStyle name="Currency" xfId="25" builtinId="4"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -313,12 +432,37 @@
     <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="28">
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF66"/>
         </patternFill>
       </fill>
     </dxf>
@@ -483,12 +627,39 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
       <fill>
@@ -508,6 +679,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFFF66"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -518,7 +694,7 @@
 
 <file path=xl/xmlMaps.xml><?xml version="1.0" encoding="utf-8"?>
 <MapInfo xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" SelectionNamespaces="">
-  <Schema ID="Schema3">
+  <Schema ID="Schema1">
     <xs:schema xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns="">
       <!-- define strings -->
       <xs:simpleType name="stringType">
@@ -528,11 +704,22 @@
       <xs:simpleType name="intType">
         <xs:restriction base="xs:integer"/>
       </xs:simpleType>
+      <!-- define decimal -->
+      <xs:simpleType name="doubleType">
+        <xs:restriction base="xs:decimal"/>
+      </xs:simpleType>
+      <!-- define money type -->
+      <xs:simpleType name="moneyType">
+        <xs:restriction base="xs:decimal"/>
+      </xs:simpleType>
       <!-- define a product -->
       <xs:complexType name="productType">
         <xs:sequence>
+          <xs:element name="name" type="stringType"/>
           <xs:element name="description" type="stringType"/>
           <xs:element name="minQuantity" type="intType"/>
+          <xs:element name="retailPrice" type="moneyType"/>
+          <xs:element name="inventory" type="intType"/>
           <xs:element name="week1" type="intType"/>
           <xs:element name="week2" type="intType"/>
           <xs:element name="week3" type="intType"/>
@@ -556,7 +743,7 @@
           <xs:element name="salesTotal" type="intType"/>
           <xs:element name="marketAPS" type="intType"/>
           <xs:element name="numStores" type="intType"/>
-          <xs:element name="monthlySales" type="intType"/>
+          <xs:element name="weeklyAvg" type="doubleType"/>
           <xs:element name="currentPromotion" type="stringType"/>
         </xs:sequence>
       </xs:complexType>
@@ -570,95 +757,105 @@
       <xs:element name="inventory" type="inventoryType"/>
     </xs:schema>
   </Schema>
-  <Map ID="5" Name="inventory_Map" RootElement="inventory" SchemaID="Schema3" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true"/>
+  <Map ID="1" Name="inventory_Map" RootElement="inventory" SchemaID="Schema1" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true"/>
 </MapInfo>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:AA28" tableType="xml" totalsRowShown="0">
-  <autoFilter ref="A1:AA28"/>
-  <tableColumns count="27">
-    <tableColumn id="1" uniqueName="description" name="Item Description " dataDxfId="23">
-      <xmlColumnPr mapId="5" xpath="/inventory/product/description" xmlDataType="string"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:AD28" tableType="xml" totalsRowShown="0">
+  <autoFilter ref="A1:AD28"/>
+  <tableColumns count="30">
+    <tableColumn id="1" uniqueName="name" name="Name">
+      <xmlColumnPr mapId="1" xpath="/inventory/product/name" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="2" uniqueName="minQuantity" name="Min. Quant." dataDxfId="22">
-      <xmlColumnPr mapId="5" xpath="/inventory/product/minQuantity" xmlDataType="integer"/>
+    <tableColumn id="2" uniqueName="description" name="Item Description " dataDxfId="27">
+      <xmlColumnPr mapId="1" xpath="/inventory/product/description" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="3" uniqueName="week1" name="W1" dataDxfId="21">
-      <xmlColumnPr mapId="5" xpath="/inventory/product/week1" xmlDataType="integer"/>
+    <tableColumn id="3" uniqueName="minQuantity" name="Min. Quant." dataDxfId="26">
+      <xmlColumnPr mapId="1" xpath="/inventory/product/minQuantity" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="4" uniqueName="week2" name="W2" dataDxfId="20">
-      <xmlColumnPr mapId="5" xpath="/inventory/product/week2" xmlDataType="integer"/>
+    <tableColumn id="4" uniqueName="retailPrice" name="Retail Price" dataDxfId="25" dataCellStyle="Currency">
+      <xmlColumnPr mapId="1" xpath="/inventory/product/retailPrice" xmlDataType="decimal"/>
     </tableColumn>
-    <tableColumn id="5" uniqueName="week3" name="W3" dataDxfId="19">
-      <xmlColumnPr mapId="5" xpath="/inventory/product/week3" xmlDataType="integer"/>
+    <tableColumn id="5" uniqueName="inventory" name="Inventory" dataDxfId="24" dataCellStyle="Currency">
+      <xmlColumnPr mapId="1" xpath="/inventory/product/inventory" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="6" uniqueName="week4" name="W4" dataDxfId="18">
-      <xmlColumnPr mapId="5" xpath="/inventory/product/week4" xmlDataType="integer"/>
+    <tableColumn id="6" uniqueName="week1" name="W1" dataDxfId="23">
+      <xmlColumnPr mapId="1" xpath="/inventory/product/week1" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="7" uniqueName="week5" name="W5" dataDxfId="17">
-      <xmlColumnPr mapId="5" xpath="/inventory/product/week5" xmlDataType="integer"/>
+    <tableColumn id="7" uniqueName="week2" name="W2" dataDxfId="22">
+      <xmlColumnPr mapId="1" xpath="/inventory/product/week2" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="8" uniqueName="week6" name="W6" dataDxfId="16">
-      <xmlColumnPr mapId="5" xpath="/inventory/product/week6" xmlDataType="integer"/>
+    <tableColumn id="8" uniqueName="week3" name="W3" dataDxfId="21">
+      <xmlColumnPr mapId="1" xpath="/inventory/product/week3" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="9" uniqueName="week7" name="W7" dataDxfId="15">
-      <xmlColumnPr mapId="5" xpath="/inventory/product/week7" xmlDataType="integer"/>
+    <tableColumn id="9" uniqueName="week4" name="W4" dataDxfId="20">
+      <xmlColumnPr mapId="1" xpath="/inventory/product/week4" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="10" uniqueName="week8" name="W8" dataDxfId="14">
-      <xmlColumnPr mapId="5" xpath="/inventory/product/week8" xmlDataType="integer"/>
+    <tableColumn id="10" uniqueName="week5" name="W5" dataDxfId="19">
+      <xmlColumnPr mapId="1" xpath="/inventory/product/week5" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="11" uniqueName="week9" name="W9" dataDxfId="13">
-      <xmlColumnPr mapId="5" xpath="/inventory/product/week9" xmlDataType="integer"/>
+    <tableColumn id="11" uniqueName="week6" name="W6" dataDxfId="18">
+      <xmlColumnPr mapId="1" xpath="/inventory/product/week6" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="12" uniqueName="week10" name="W10" dataDxfId="12">
-      <xmlColumnPr mapId="5" xpath="/inventory/product/week10" xmlDataType="integer"/>
+    <tableColumn id="12" uniqueName="week7" name="W7" dataDxfId="17">
+      <xmlColumnPr mapId="1" xpath="/inventory/product/week7" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="13" uniqueName="week11" name="W11" dataDxfId="11">
-      <xmlColumnPr mapId="5" xpath="/inventory/product/week11" xmlDataType="integer"/>
+    <tableColumn id="13" uniqueName="week8" name="W8" dataDxfId="16">
+      <xmlColumnPr mapId="1" xpath="/inventory/product/week8" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="14" uniqueName="week12" name="W12" dataDxfId="10">
-      <xmlColumnPr mapId="5" xpath="/inventory/product/week12" xmlDataType="integer"/>
+    <tableColumn id="14" uniqueName="week9" name="W9" dataDxfId="15">
+      <xmlColumnPr mapId="1" xpath="/inventory/product/week9" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="15" uniqueName="week13" name="W13" dataDxfId="9">
-      <xmlColumnPr mapId="5" xpath="/inventory/product/week13" xmlDataType="integer"/>
+    <tableColumn id="15" uniqueName="week10" name="W10" dataDxfId="14">
+      <xmlColumnPr mapId="1" xpath="/inventory/product/week10" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="16" uniqueName="week14" name="W14" dataDxfId="8">
-      <xmlColumnPr mapId="5" xpath="/inventory/product/week14" xmlDataType="integer"/>
+    <tableColumn id="16" uniqueName="week11" name="W11" dataDxfId="13">
+      <xmlColumnPr mapId="1" xpath="/inventory/product/week11" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="17" uniqueName="week15" name="W15" dataDxfId="7">
-      <xmlColumnPr mapId="5" xpath="/inventory/product/week15" xmlDataType="integer"/>
+    <tableColumn id="17" uniqueName="week12" name="W12" dataDxfId="12">
+      <xmlColumnPr mapId="1" xpath="/inventory/product/week12" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="18" uniqueName="week16" name="W16" dataDxfId="6">
-      <xmlColumnPr mapId="5" xpath="/inventory/product/week16" xmlDataType="integer"/>
+    <tableColumn id="18" uniqueName="week13" name="W13" dataDxfId="11">
+      <xmlColumnPr mapId="1" xpath="/inventory/product/week13" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="19" uniqueName="week17" name="W17" dataDxfId="5">
-      <xmlColumnPr mapId="5" xpath="/inventory/product/week17" xmlDataType="integer"/>
+    <tableColumn id="19" uniqueName="week14" name="W14" dataDxfId="10">
+      <xmlColumnPr mapId="1" xpath="/inventory/product/week14" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="20" uniqueName="week18" name="W18" dataDxfId="4">
-      <xmlColumnPr mapId="5" xpath="/inventory/product/week18" xmlDataType="integer"/>
+    <tableColumn id="20" uniqueName="week15" name="W15" dataDxfId="9">
+      <xmlColumnPr mapId="1" xpath="/inventory/product/week15" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="21" uniqueName="week19" name="W19" dataDxfId="3">
-      <xmlColumnPr mapId="5" xpath="/inventory/product/week19" xmlDataType="integer"/>
+    <tableColumn id="21" uniqueName="week16" name="W16" dataDxfId="8">
+      <xmlColumnPr mapId="1" xpath="/inventory/product/week16" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="22" uniqueName="week20" name="W20" dataDxfId="2">
-      <xmlColumnPr mapId="5" xpath="/inventory/product/week20" xmlDataType="integer"/>
+    <tableColumn id="22" uniqueName="week17" name="W17" dataDxfId="7">
+      <xmlColumnPr mapId="1" xpath="/inventory/product/week17" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="23" uniqueName="salesTotal" name="Sales 20WTot">
-      <calculatedColumnFormula>SUM(C2:V2)</calculatedColumnFormula>
-      <xmlColumnPr mapId="5" xpath="/inventory/product/salesTotal" xmlDataType="integer"/>
+    <tableColumn id="23" uniqueName="week18" name="W18" dataDxfId="6">
+      <xmlColumnPr mapId="1" xpath="/inventory/product/week18" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="24" uniqueName="marketAPS" name="Mkt APS" dataDxfId="1">
-      <xmlColumnPr mapId="5" xpath="/inventory/product/marketAPS" xmlDataType="integer"/>
+    <tableColumn id="24" uniqueName="week19" name="W19" dataDxfId="5">
+      <xmlColumnPr mapId="1" xpath="/inventory/product/week19" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="25" uniqueName="numStores" name="# of Strs" dataDxfId="0">
-      <xmlColumnPr mapId="5" xpath="/inventory/product/numStores" xmlDataType="integer"/>
+    <tableColumn id="25" uniqueName="week20" name="W20" dataDxfId="4">
+      <xmlColumnPr mapId="1" xpath="/inventory/product/week20" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="26" uniqueName="monthlySales" name="Monthly Sales">
-      <xmlColumnPr mapId="5" xpath="/inventory/product/monthlySales" xmlDataType="integer"/>
+    <tableColumn id="26" uniqueName="salesTotal" name="Sales 20WTot" dataDxfId="3">
+      <calculatedColumnFormula>SUM(F2:Y2)</calculatedColumnFormula>
+      <xmlColumnPr mapId="1" xpath="/inventory/product/salesTotal" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="27" uniqueName="currentPromotion" name="Current Promotions">
-      <xmlColumnPr mapId="5" xpath="/inventory/product/currentPromotion" xmlDataType="string"/>
+    <tableColumn id="27" uniqueName="marketAPS" name="Mkt APS" dataDxfId="2">
+      <xmlColumnPr mapId="1" xpath="/inventory/product/marketAPS" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="28" uniqueName="numStores" name="# of Strs" dataDxfId="1">
+      <xmlColumnPr mapId="1" xpath="/inventory/product/numStores" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="29" uniqueName="weeklyAvg" name="Weekly Average Sales" dataDxfId="0">
+      <calculatedColumnFormula>AVERAGE(F2:Y2)</calculatedColumnFormula>
+      <xmlColumnPr mapId="1" xpath="/inventory/product/weeklyAvg" xmlDataType="decimal"/>
+    </tableColumn>
+    <tableColumn id="30" uniqueName="currentPromotion" name="Current Promotions">
+      <xmlColumnPr mapId="1" xpath="/inventory/product/currentPromotion" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -952,730 +1149,838 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD28"/>
+  <dimension ref="A1:AG28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B28"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="11" width="6.28515625" customWidth="1"/>
-    <col min="12" max="22" width="7.28515625" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" customWidth="1"/>
-    <col min="24" max="24" width="10.42578125" customWidth="1"/>
-    <col min="25" max="25" width="10.140625" customWidth="1"/>
-    <col min="26" max="26" width="15.5703125" customWidth="1"/>
-    <col min="27" max="27" width="20.5703125" customWidth="1"/>
+    <col min="1" max="1" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" customWidth="1"/>
+    <col min="6" max="14" width="6.28515625" customWidth="1"/>
+    <col min="15" max="25" width="7.28515625" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" customWidth="1"/>
+    <col min="27" max="27" width="10.42578125" customWidth="1"/>
+    <col min="28" max="28" width="10.140625" customWidth="1"/>
+    <col min="29" max="29" width="22.5703125" customWidth="1"/>
+    <col min="30" max="30" width="20.5703125" customWidth="1"/>
+    <col min="33" max="33" width="17.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L1" t="s">
         <v>39</v>
       </c>
-      <c r="H1" t="s">
+      <c r="M1" t="s">
         <v>40</v>
       </c>
-      <c r="I1" t="s">
+      <c r="N1" t="s">
         <v>41</v>
       </c>
-      <c r="J1" t="s">
+      <c r="O1" t="s">
         <v>42</v>
       </c>
-      <c r="K1" t="s">
+      <c r="P1" t="s">
         <v>43</v>
       </c>
-      <c r="L1" t="s">
+      <c r="Q1" t="s">
         <v>44</v>
       </c>
-      <c r="M1" t="s">
+      <c r="R1" t="s">
         <v>45</v>
       </c>
-      <c r="N1" t="s">
+      <c r="S1" t="s">
         <v>46</v>
       </c>
-      <c r="O1" t="s">
+      <c r="T1" t="s">
         <v>47</v>
       </c>
-      <c r="P1" t="s">
+      <c r="U1" t="s">
         <v>48</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="V1" t="s">
         <v>49</v>
       </c>
-      <c r="R1" t="s">
+      <c r="W1" t="s">
         <v>50</v>
       </c>
-      <c r="S1" t="s">
+      <c r="X1" t="s">
         <v>51</v>
       </c>
-      <c r="T1" t="s">
+      <c r="Y1" t="s">
         <v>52</v>
       </c>
-      <c r="U1" t="s">
+      <c r="Z1" t="s">
         <v>53</v>
       </c>
-      <c r="V1" t="s">
+      <c r="AA1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD1" t="s">
         <v>54</v>
       </c>
-      <c r="W1" t="s">
-        <v>55</v>
-      </c>
-      <c r="X1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>56</v>
-      </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2">
+        <v>15</v>
+      </c>
+      <c r="D2" s="3">
+        <v>1.99</v>
+      </c>
+      <c r="E2" s="8">
+        <v>36</v>
+      </c>
+      <c r="F2">
+        <v>27</v>
+      </c>
+      <c r="G2">
+        <v>26</v>
+      </c>
+      <c r="H2" s="1">
         <v>9</v>
       </c>
-      <c r="B2">
-        <v>15</v>
-      </c>
-      <c r="C2">
-        <v>27</v>
-      </c>
-      <c r="D2">
+      <c r="I2" s="2">
+        <v>54</v>
+      </c>
+      <c r="J2">
+        <v>44</v>
+      </c>
+      <c r="K2">
+        <v>49</v>
+      </c>
+      <c r="L2">
+        <v>52</v>
+      </c>
+      <c r="M2">
+        <v>28</v>
+      </c>
+      <c r="N2">
         <v>26</v>
       </c>
-      <c r="E2" s="1">
+      <c r="O2">
+        <v>21</v>
+      </c>
+      <c r="P2">
+        <v>22</v>
+      </c>
+      <c r="Q2">
+        <v>23</v>
+      </c>
+      <c r="R2">
+        <v>36</v>
+      </c>
+      <c r="S2" s="1">
+        <v>17</v>
+      </c>
+      <c r="T2">
+        <v>22</v>
+      </c>
+      <c r="U2">
+        <v>24</v>
+      </c>
+      <c r="V2">
+        <v>26</v>
+      </c>
+      <c r="W2">
+        <v>23</v>
+      </c>
+      <c r="X2">
+        <v>26</v>
+      </c>
+      <c r="Y2">
+        <v>21</v>
+      </c>
+      <c r="Z2">
+        <f>SUM(F2:Y2)</f>
+        <v>576</v>
+      </c>
+      <c r="AA2">
+        <v>19</v>
+      </c>
+      <c r="AB2">
+        <v>95</v>
+      </c>
+      <c r="AC2" s="4">
+        <f>AVERAGE(F2:Y2)</f>
+        <v>28.8</v>
+      </c>
+      <c r="AD2" s="10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="2">
-        <v>54</v>
-      </c>
-      <c r="G2">
-        <v>44</v>
-      </c>
-      <c r="H2">
-        <v>49</v>
-      </c>
-      <c r="I2">
-        <v>52</v>
-      </c>
-      <c r="J2">
-        <v>28</v>
-      </c>
-      <c r="K2">
-        <v>26</v>
-      </c>
-      <c r="L2">
+      <c r="C3">
+        <v>10</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1.99</v>
+      </c>
+      <c r="E3" s="9">
+        <v>25</v>
+      </c>
+      <c r="F3">
+        <v>20</v>
+      </c>
+      <c r="G3">
+        <v>23</v>
+      </c>
+      <c r="H3">
+        <v>18</v>
+      </c>
+      <c r="I3">
+        <v>10</v>
+      </c>
+      <c r="J3">
+        <v>22</v>
+      </c>
+      <c r="K3">
+        <v>20</v>
+      </c>
+      <c r="L3">
+        <v>24</v>
+      </c>
+      <c r="M3">
+        <v>23</v>
+      </c>
+      <c r="N3">
         <v>21</v>
       </c>
-      <c r="M2">
+      <c r="O3">
         <v>22</v>
       </c>
-      <c r="N2">
-        <v>23</v>
-      </c>
-      <c r="O2">
-        <v>36</v>
-      </c>
-      <c r="P2" s="1">
-        <v>17</v>
-      </c>
-      <c r="Q2">
-        <v>22</v>
-      </c>
-      <c r="R2">
-        <v>24</v>
-      </c>
-      <c r="S2">
-        <v>26</v>
-      </c>
-      <c r="T2">
-        <v>23</v>
-      </c>
-      <c r="U2">
-        <v>26</v>
-      </c>
-      <c r="V2">
-        <v>21</v>
-      </c>
-      <c r="W2">
-        <f>SUM(C2:V2)</f>
-        <v>576</v>
-      </c>
-      <c r="X2">
-        <v>19</v>
-      </c>
-      <c r="Y2">
-        <v>95</v>
-      </c>
-      <c r="AA2" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3">
-        <v>10</v>
-      </c>
-      <c r="C3">
+      <c r="P3">
         <v>20</v>
-      </c>
-      <c r="D3">
-        <v>23</v>
-      </c>
-      <c r="E3">
-        <v>18</v>
-      </c>
-      <c r="F3">
-        <v>10</v>
-      </c>
-      <c r="G3">
-        <v>22</v>
-      </c>
-      <c r="H3">
-        <v>20</v>
-      </c>
-      <c r="I3">
-        <v>24</v>
-      </c>
-      <c r="J3">
-        <v>23</v>
-      </c>
-      <c r="K3">
-        <v>21</v>
-      </c>
-      <c r="L3">
-        <v>22</v>
-      </c>
-      <c r="M3">
-        <v>20</v>
-      </c>
-      <c r="N3">
-        <v>19</v>
-      </c>
-      <c r="O3">
-        <v>23</v>
-      </c>
-      <c r="P3">
-        <v>21</v>
       </c>
       <c r="Q3">
         <v>19</v>
       </c>
       <c r="R3">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S3">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="T3">
         <v>19</v>
       </c>
       <c r="U3">
+        <v>22</v>
+      </c>
+      <c r="V3">
+        <v>22</v>
+      </c>
+      <c r="W3">
+        <v>19</v>
+      </c>
+      <c r="X3">
         <v>20</v>
       </c>
-      <c r="V3">
+      <c r="Y3">
         <v>18</v>
       </c>
-      <c r="W3">
-        <f t="shared" ref="W3:W28" si="0">SUM(C3:V3)</f>
+      <c r="Z3">
+        <f t="shared" ref="Z3:Z28" si="0">SUM(F3:Y3)</f>
         <v>406</v>
       </c>
-      <c r="X3">
-        <v>6</v>
-      </c>
-      <c r="Y3">
+      <c r="AA3">
+        <v>6</v>
+      </c>
+      <c r="AB3">
         <v>94</v>
       </c>
-      <c r="AA3" s="3" t="s">
+      <c r="AC3" s="4">
+        <f t="shared" ref="AC3:AC28" si="1">AVERAGE(F3:Y3)</f>
+        <v>20.3</v>
+      </c>
+      <c r="AD3" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF3" s="1"/>
+      <c r="AG3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>12</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1.39</v>
+      </c>
+      <c r="E4" s="8">
+        <v>21</v>
+      </c>
+      <c r="F4">
+        <v>17</v>
+      </c>
+      <c r="G4">
+        <v>21</v>
+      </c>
+      <c r="H4">
         <v>38</v>
       </c>
-      <c r="AC3" s="1"/>
-      <c r="AD3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="I4" s="1">
         <v>11</v>
       </c>
-      <c r="B4">
-        <v>12</v>
-      </c>
-      <c r="C4">
-        <v>17</v>
-      </c>
-      <c r="D4">
-        <v>21</v>
-      </c>
-      <c r="E4">
-        <v>38</v>
-      </c>
-      <c r="F4" s="1">
-        <v>11</v>
-      </c>
-      <c r="G4">
+      <c r="J4">
         <v>35</v>
       </c>
-      <c r="H4">
+      <c r="K4">
         <v>34</v>
-      </c>
-      <c r="I4">
-        <v>19</v>
-      </c>
-      <c r="J4">
-        <v>21</v>
-      </c>
-      <c r="K4">
-        <v>18</v>
       </c>
       <c r="L4">
         <v>19</v>
       </c>
       <c r="M4">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="N4">
         <v>18</v>
       </c>
       <c r="O4">
+        <v>19</v>
+      </c>
+      <c r="P4">
+        <v>17</v>
+      </c>
+      <c r="Q4">
+        <v>18</v>
+      </c>
+      <c r="R4">
         <v>20</v>
       </c>
-      <c r="P4">
+      <c r="S4">
         <v>22</v>
       </c>
-      <c r="Q4">
+      <c r="T4">
         <v>25</v>
       </c>
-      <c r="R4">
+      <c r="U4">
         <v>19</v>
       </c>
-      <c r="S4">
+      <c r="V4">
         <v>18</v>
       </c>
-      <c r="T4">
+      <c r="W4">
         <v>20</v>
       </c>
-      <c r="U4">
+      <c r="X4">
         <v>17</v>
       </c>
-      <c r="V4">
+      <c r="Y4">
         <v>19</v>
       </c>
-      <c r="W4">
+      <c r="Z4">
         <f t="shared" si="0"/>
         <v>428</v>
       </c>
-      <c r="X4">
+      <c r="AA4">
         <v>13</v>
       </c>
-      <c r="Y4">
+      <c r="AB4">
         <v>95</v>
       </c>
-      <c r="AA4" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC4" s="2"/>
-      <c r="AD4" t="s">
-        <v>37</v>
+      <c r="AC4" s="4">
+        <f t="shared" si="1"/>
+        <v>21.4</v>
+      </c>
+      <c r="AD4" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF4" s="2"/>
+      <c r="AG4" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5">
         <v>10</v>
       </c>
-      <c r="C5">
+      <c r="D5" s="3">
+        <v>1.99</v>
+      </c>
+      <c r="E5" s="8">
+        <v>11</v>
+      </c>
+      <c r="F5">
         <v>16</v>
       </c>
-      <c r="D5">
+      <c r="G5">
         <v>14</v>
       </c>
-      <c r="E5" s="1">
-        <v>7</v>
-      </c>
-      <c r="F5">
+      <c r="H5" s="1">
+        <v>7</v>
+      </c>
+      <c r="I5">
         <v>11</v>
       </c>
-      <c r="G5">
+      <c r="J5">
         <v>12</v>
       </c>
-      <c r="H5">
+      <c r="K5">
         <v>15</v>
       </c>
-      <c r="I5">
+      <c r="L5">
         <v>12</v>
       </c>
-      <c r="J5">
+      <c r="M5">
         <v>14</v>
       </c>
-      <c r="K5">
+      <c r="N5">
         <v>13</v>
       </c>
-      <c r="L5">
+      <c r="O5">
         <v>15</v>
       </c>
-      <c r="M5">
+      <c r="P5">
         <v>16</v>
       </c>
-      <c r="N5">
+      <c r="Q5">
         <v>15</v>
       </c>
-      <c r="O5">
+      <c r="R5">
         <v>14</v>
       </c>
-      <c r="P5">
+      <c r="S5">
         <v>12</v>
       </c>
-      <c r="Q5">
+      <c r="T5">
         <v>13</v>
       </c>
-      <c r="R5">
+      <c r="U5">
         <v>15</v>
       </c>
-      <c r="S5">
+      <c r="V5">
         <v>15</v>
       </c>
-      <c r="T5">
+      <c r="W5">
         <v>16</v>
       </c>
-      <c r="U5">
+      <c r="X5">
         <v>14</v>
       </c>
-      <c r="V5">
+      <c r="Y5">
         <v>12</v>
       </c>
-      <c r="W5">
+      <c r="Z5">
         <f t="shared" si="0"/>
         <v>271</v>
       </c>
-      <c r="X5">
-        <v>8</v>
-      </c>
-      <c r="Y5">
+      <c r="AA5">
+        <v>8</v>
+      </c>
+      <c r="AB5">
         <v>91</v>
       </c>
-      <c r="AA5" s="3" t="s">
-        <v>38</v>
+      <c r="AC5" s="4">
+        <f t="shared" si="1"/>
+        <v>13.55</v>
+      </c>
+      <c r="AD5" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF5" s="7"/>
+      <c r="AG5" t="s">
+        <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6">
         <v>12</v>
       </c>
-      <c r="C6">
-        <v>13</v>
-      </c>
-      <c r="D6">
-        <v>10</v>
-      </c>
-      <c r="E6">
-        <v>9</v>
+      <c r="D6" s="3">
+        <v>1.99</v>
+      </c>
+      <c r="E6" s="8">
+        <v>15</v>
       </c>
       <c r="F6">
         <v>13</v>
       </c>
       <c r="G6">
+        <v>10</v>
+      </c>
+      <c r="H6">
+        <v>9</v>
+      </c>
+      <c r="I6">
+        <v>13</v>
+      </c>
+      <c r="J6">
         <v>12</v>
       </c>
-      <c r="H6">
+      <c r="K6">
         <v>13</v>
       </c>
-      <c r="I6">
+      <c r="L6">
         <v>14</v>
       </c>
-      <c r="J6">
+      <c r="M6">
         <v>15</v>
       </c>
-      <c r="K6">
+      <c r="N6">
         <v>16</v>
       </c>
-      <c r="L6">
+      <c r="O6">
         <v>13</v>
       </c>
-      <c r="M6">
+      <c r="P6">
         <v>12</v>
       </c>
-      <c r="N6">
+      <c r="Q6">
         <v>14</v>
       </c>
-      <c r="O6">
+      <c r="R6">
         <v>14</v>
       </c>
-      <c r="P6">
+      <c r="S6">
         <v>13</v>
       </c>
-      <c r="Q6">
+      <c r="T6">
         <v>11</v>
-      </c>
-      <c r="R6">
-        <v>12</v>
-      </c>
-      <c r="S6">
-        <v>10</v>
-      </c>
-      <c r="T6">
-        <v>8</v>
       </c>
       <c r="U6">
         <v>12</v>
       </c>
       <c r="V6">
+        <v>10</v>
+      </c>
+      <c r="W6">
+        <v>8</v>
+      </c>
+      <c r="X6">
+        <v>12</v>
+      </c>
+      <c r="Y6">
         <v>14</v>
       </c>
-      <c r="W6">
+      <c r="Z6">
         <f t="shared" si="0"/>
         <v>248</v>
       </c>
-      <c r="X6">
-        <v>8</v>
-      </c>
-      <c r="Y6">
+      <c r="AA6">
+        <v>8</v>
+      </c>
+      <c r="AB6">
         <v>95</v>
       </c>
-      <c r="AA6" s="3"/>
+      <c r="AC6" s="4">
+        <f t="shared" si="1"/>
+        <v>12.4</v>
+      </c>
+      <c r="AD6" s="10"/>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7">
+        <v>10</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1.99</v>
+      </c>
+      <c r="E7" s="8">
+        <v>20</v>
+      </c>
+      <c r="F7">
         <v>12</v>
       </c>
-      <c r="B7">
-        <v>10</v>
-      </c>
-      <c r="C7">
-        <v>12</v>
-      </c>
-      <c r="D7">
+      <c r="G7">
         <v>18</v>
       </c>
-      <c r="E7">
+      <c r="H7">
         <v>14</v>
       </c>
-      <c r="F7">
+      <c r="I7">
         <v>41</v>
       </c>
-      <c r="G7">
+      <c r="J7">
         <v>40</v>
       </c>
-      <c r="H7">
+      <c r="K7">
         <v>45</v>
       </c>
-      <c r="I7" s="2">
+      <c r="L7" s="2">
         <v>54</v>
       </c>
-      <c r="J7">
+      <c r="M7">
         <v>15</v>
       </c>
-      <c r="K7">
+      <c r="N7">
         <v>18</v>
       </c>
-      <c r="L7">
+      <c r="O7">
         <v>19</v>
       </c>
-      <c r="M7">
+      <c r="P7">
         <v>18</v>
       </c>
-      <c r="N7">
+      <c r="Q7">
         <v>15</v>
-      </c>
-      <c r="O7">
-        <v>17</v>
-      </c>
-      <c r="P7">
-        <v>19</v>
-      </c>
-      <c r="Q7">
-        <v>20</v>
       </c>
       <c r="R7">
         <v>17</v>
       </c>
       <c r="S7">
+        <v>19</v>
+      </c>
+      <c r="T7">
+        <v>20</v>
+      </c>
+      <c r="U7">
+        <v>17</v>
+      </c>
+      <c r="V7">
         <v>12</v>
       </c>
-      <c r="T7">
+      <c r="W7">
         <v>16</v>
       </c>
-      <c r="U7">
+      <c r="X7">
         <v>11</v>
       </c>
-      <c r="V7">
+      <c r="Y7">
         <v>16</v>
       </c>
-      <c r="W7">
+      <c r="Z7">
         <f t="shared" si="0"/>
         <v>437</v>
       </c>
-      <c r="X7">
+      <c r="AA7">
         <v>24</v>
       </c>
-      <c r="Y7">
+      <c r="AB7">
         <v>95</v>
       </c>
-      <c r="AA7" s="3" t="s">
-        <v>38</v>
+      <c r="AC7" s="4">
+        <f t="shared" si="1"/>
+        <v>21.85</v>
+      </c>
+      <c r="AD7" s="10" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8">
+        <v>10</v>
+      </c>
+      <c r="D8" s="3">
+        <v>1.99</v>
+      </c>
+      <c r="E8" s="8">
+        <v>10</v>
+      </c>
+      <c r="F8">
+        <v>11</v>
+      </c>
+      <c r="G8">
+        <v>15</v>
+      </c>
+      <c r="H8">
+        <v>12</v>
+      </c>
+      <c r="I8">
+        <v>6</v>
+      </c>
+      <c r="J8">
+        <v>10</v>
+      </c>
+      <c r="K8">
         <v>13</v>
       </c>
-      <c r="B8">
-        <v>10</v>
-      </c>
-      <c r="C8">
+      <c r="L8">
+        <v>8</v>
+      </c>
+      <c r="M8">
+        <v>12</v>
+      </c>
+      <c r="N8">
         <v>11</v>
-      </c>
-      <c r="D8">
-        <v>15</v>
-      </c>
-      <c r="E8">
-        <v>12</v>
-      </c>
-      <c r="F8">
-        <v>6</v>
-      </c>
-      <c r="G8">
-        <v>10</v>
-      </c>
-      <c r="H8">
-        <v>13</v>
-      </c>
-      <c r="I8">
-        <v>8</v>
-      </c>
-      <c r="J8">
-        <v>12</v>
-      </c>
-      <c r="K8">
-        <v>11</v>
-      </c>
-      <c r="L8">
-        <v>14</v>
-      </c>
-      <c r="M8">
-        <v>15</v>
-      </c>
-      <c r="N8">
-        <v>12</v>
       </c>
       <c r="O8">
         <v>14</v>
       </c>
       <c r="P8">
+        <v>15</v>
+      </c>
+      <c r="Q8">
+        <v>12</v>
+      </c>
+      <c r="R8">
         <v>14</v>
       </c>
-      <c r="Q8">
+      <c r="S8">
+        <v>14</v>
+      </c>
+      <c r="T8">
         <v>13</v>
       </c>
-      <c r="R8">
+      <c r="U8">
         <v>15</v>
       </c>
-      <c r="S8">
+      <c r="V8">
         <v>12</v>
       </c>
-      <c r="T8">
+      <c r="W8">
         <v>16</v>
       </c>
-      <c r="U8">
+      <c r="X8">
         <v>13</v>
       </c>
-      <c r="V8">
+      <c r="Y8">
         <v>18</v>
       </c>
-      <c r="W8">
+      <c r="Z8">
         <f t="shared" si="0"/>
         <v>254</v>
       </c>
-      <c r="X8">
+      <c r="AA8">
         <v>11</v>
       </c>
-      <c r="Y8">
+      <c r="AB8">
         <v>95</v>
       </c>
-      <c r="AA8" s="3"/>
+      <c r="AC8" s="4">
+        <f t="shared" si="1"/>
+        <v>12.7</v>
+      </c>
+      <c r="AD8" s="10"/>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9">
-        <v>6</v>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>13</v>
       </c>
       <c r="C9">
+        <v>6</v>
+      </c>
+      <c r="D9" s="3">
+        <v>1.99</v>
+      </c>
+      <c r="E9" s="8">
+        <v>8</v>
+      </c>
+      <c r="F9">
         <v>10</v>
       </c>
-      <c r="D9">
-        <v>8</v>
-      </c>
-      <c r="E9">
+      <c r="G9">
+        <v>8</v>
+      </c>
+      <c r="H9">
         <v>9</v>
       </c>
-      <c r="F9">
-        <v>7</v>
-      </c>
-      <c r="G9">
+      <c r="I9">
+        <v>7</v>
+      </c>
+      <c r="J9">
         <v>9</v>
       </c>
-      <c r="H9">
-        <v>8</v>
-      </c>
-      <c r="I9">
-        <v>9</v>
-      </c>
-      <c r="J9">
-        <v>10</v>
-      </c>
       <c r="K9">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="L9">
         <v>9</v>
       </c>
       <c r="M9">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="N9">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O9">
         <v>9</v>
       </c>
       <c r="P9">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Q9">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="R9">
         <v>9</v>
@@ -1684,137 +1989,163 @@
         <v>9</v>
       </c>
       <c r="T9">
+        <v>8</v>
+      </c>
+      <c r="U9">
+        <v>9</v>
+      </c>
+      <c r="V9">
+        <v>9</v>
+      </c>
+      <c r="W9">
         <v>10</v>
       </c>
-      <c r="U9">
-        <v>8</v>
-      </c>
-      <c r="V9">
-        <v>7</v>
-      </c>
-      <c r="W9">
+      <c r="X9">
+        <v>8</v>
+      </c>
+      <c r="Y9">
+        <v>7</v>
+      </c>
+      <c r="Z9">
         <f t="shared" si="0"/>
         <v>177</v>
       </c>
-      <c r="X9">
-        <v>7</v>
-      </c>
-      <c r="Y9">
+      <c r="AA9">
+        <v>7</v>
+      </c>
+      <c r="AB9">
         <v>91</v>
       </c>
-      <c r="AA9" s="3" t="s">
-        <v>38</v>
+      <c r="AC9" s="4">
+        <f t="shared" si="1"/>
+        <v>8.85</v>
+      </c>
+      <c r="AD9" s="10" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10">
-        <v>6</v>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>14</v>
       </c>
       <c r="C10">
+        <v>6</v>
+      </c>
+      <c r="D10" s="3">
+        <v>1.39</v>
+      </c>
+      <c r="E10" s="8">
         <v>9</v>
       </c>
-      <c r="D10">
+      <c r="F10">
+        <v>9</v>
+      </c>
+      <c r="G10">
         <v>3</v>
       </c>
-      <c r="E10">
-        <v>5</v>
-      </c>
-      <c r="F10">
+      <c r="H10">
+        <v>5</v>
+      </c>
+      <c r="I10">
         <v>11</v>
       </c>
-      <c r="G10">
-        <v>8</v>
-      </c>
-      <c r="H10">
-        <v>7</v>
-      </c>
-      <c r="I10">
+      <c r="J10">
+        <v>8</v>
+      </c>
+      <c r="K10">
+        <v>7</v>
+      </c>
+      <c r="L10">
         <v>9</v>
       </c>
-      <c r="J10">
-        <v>8</v>
-      </c>
-      <c r="K10">
-        <v>6</v>
-      </c>
-      <c r="L10">
+      <c r="M10">
+        <v>8</v>
+      </c>
+      <c r="N10">
+        <v>6</v>
+      </c>
+      <c r="O10">
         <v>10</v>
       </c>
-      <c r="M10">
-        <v>8</v>
-      </c>
-      <c r="N10">
-        <v>5</v>
-      </c>
-      <c r="O10">
+      <c r="P10">
+        <v>8</v>
+      </c>
+      <c r="Q10">
+        <v>5</v>
+      </c>
+      <c r="R10">
         <v>9</v>
       </c>
-      <c r="P10">
+      <c r="S10">
         <v>10</v>
       </c>
-      <c r="Q10">
-        <v>6</v>
-      </c>
-      <c r="R10">
-        <v>8</v>
-      </c>
-      <c r="S10">
+      <c r="T10">
+        <v>6</v>
+      </c>
+      <c r="U10">
+        <v>8</v>
+      </c>
+      <c r="V10">
         <v>9</v>
       </c>
-      <c r="T10">
-        <v>8</v>
-      </c>
-      <c r="U10">
-        <v>5</v>
-      </c>
-      <c r="V10">
-        <v>8</v>
-      </c>
       <c r="W10">
+        <v>8</v>
+      </c>
+      <c r="X10">
+        <v>5</v>
+      </c>
+      <c r="Y10">
+        <v>8</v>
+      </c>
+      <c r="Z10">
         <f t="shared" si="0"/>
         <v>152</v>
       </c>
-      <c r="X10">
-        <v>8</v>
-      </c>
-      <c r="Y10">
+      <c r="AA10">
+        <v>8</v>
+      </c>
+      <c r="AB10">
         <v>95</v>
       </c>
-      <c r="AA10" s="3"/>
+      <c r="AC10" s="4">
+        <f t="shared" si="1"/>
+        <v>7.6</v>
+      </c>
+      <c r="AD10" s="10"/>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11">
-        <v>6</v>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>55</v>
       </c>
       <c r="C11">
+        <v>6</v>
+      </c>
+      <c r="D11" s="3">
+        <v>1.39</v>
+      </c>
+      <c r="E11" s="8">
+        <v>24</v>
+      </c>
+      <c r="F11">
         <v>9</v>
       </c>
-      <c r="D11">
+      <c r="G11">
         <v>14</v>
       </c>
-      <c r="E11">
+      <c r="H11">
         <v>13</v>
       </c>
-      <c r="F11">
+      <c r="I11">
         <v>18</v>
       </c>
-      <c r="G11">
+      <c r="J11">
         <v>17</v>
-      </c>
-      <c r="H11">
-        <v>16</v>
-      </c>
-      <c r="I11">
-        <v>15</v>
-      </c>
-      <c r="J11">
-        <v>14</v>
       </c>
       <c r="K11">
         <v>16</v>
@@ -1823,540 +2154,631 @@
         <v>15</v>
       </c>
       <c r="M11">
+        <v>14</v>
+      </c>
+      <c r="N11">
+        <v>16</v>
+      </c>
+      <c r="O11">
+        <v>15</v>
+      </c>
+      <c r="P11">
         <v>13</v>
       </c>
-      <c r="N11">
+      <c r="Q11">
         <v>12</v>
       </c>
-      <c r="O11">
+      <c r="R11">
         <v>11</v>
       </c>
-      <c r="P11">
+      <c r="S11">
         <v>14</v>
       </c>
-      <c r="Q11">
+      <c r="T11">
         <v>17</v>
       </c>
-      <c r="R11">
+      <c r="U11">
         <v>15</v>
       </c>
-      <c r="S11">
-        <v>8</v>
-      </c>
-      <c r="T11">
+      <c r="V11">
+        <v>8</v>
+      </c>
+      <c r="W11">
         <v>12</v>
       </c>
-      <c r="U11">
+      <c r="X11">
         <v>13</v>
       </c>
-      <c r="V11">
+      <c r="Y11">
         <v>18</v>
       </c>
-      <c r="W11">
+      <c r="Z11">
         <f t="shared" si="0"/>
         <v>280</v>
       </c>
-      <c r="X11">
+      <c r="AA11">
         <v>11</v>
       </c>
-      <c r="Y11">
+      <c r="AB11">
         <v>95</v>
       </c>
-      <c r="AA11" s="3"/>
+      <c r="AC11" s="4">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="AD11" s="10"/>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12">
         <v>12</v>
       </c>
-      <c r="C12">
+      <c r="D12" s="3">
+        <v>1.99</v>
+      </c>
+      <c r="E12" s="8">
+        <v>5</v>
+      </c>
+      <c r="F12">
         <v>9</v>
       </c>
-      <c r="D12">
+      <c r="G12">
         <v>12</v>
       </c>
-      <c r="E12">
+      <c r="H12">
         <v>10</v>
-      </c>
-      <c r="F12">
-        <v>12</v>
-      </c>
-      <c r="G12">
-        <v>11</v>
-      </c>
-      <c r="H12">
-        <v>13</v>
       </c>
       <c r="I12">
         <v>12</v>
       </c>
       <c r="J12">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K12">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="L12">
         <v>12</v>
       </c>
       <c r="M12">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="N12">
+        <v>9</v>
+      </c>
+      <c r="O12">
         <v>12</v>
       </c>
-      <c r="O12">
+      <c r="P12">
+        <v>8</v>
+      </c>
+      <c r="Q12">
+        <v>12</v>
+      </c>
+      <c r="R12">
         <v>13</v>
       </c>
-      <c r="P12">
+      <c r="S12">
         <v>10</v>
       </c>
-      <c r="Q12">
+      <c r="T12">
         <v>11</v>
       </c>
-      <c r="R12">
+      <c r="U12">
         <v>12</v>
       </c>
-      <c r="S12">
+      <c r="V12">
         <v>9</v>
       </c>
-      <c r="T12">
+      <c r="W12">
         <v>10</v>
       </c>
-      <c r="U12">
-        <v>8</v>
-      </c>
-      <c r="V12">
+      <c r="X12">
+        <v>8</v>
+      </c>
+      <c r="Y12">
         <v>13</v>
       </c>
-      <c r="W12">
+      <c r="Z12">
         <f t="shared" si="0"/>
         <v>218</v>
       </c>
-      <c r="X12">
+      <c r="AA12">
         <v>9</v>
       </c>
-      <c r="Y12">
+      <c r="AB12">
         <v>94</v>
       </c>
-      <c r="AA12" s="3"/>
+      <c r="AC12" s="4">
+        <f t="shared" si="1"/>
+        <v>10.9</v>
+      </c>
+      <c r="AD12" s="10"/>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13">
-        <v>5</v>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>16</v>
       </c>
       <c r="C13">
-        <v>8</v>
-      </c>
-      <c r="D13">
-        <v>9</v>
-      </c>
-      <c r="E13">
-        <v>5</v>
-      </c>
-      <c r="F13" s="1">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="D13" s="3">
+        <v>1.39</v>
+      </c>
+      <c r="E13" s="8">
+        <v>11</v>
+      </c>
+      <c r="F13">
+        <v>8</v>
       </c>
       <c r="G13">
         <v>9</v>
       </c>
       <c r="H13">
-        <v>8</v>
-      </c>
-      <c r="I13">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="I13" s="1">
+        <v>1</v>
       </c>
       <c r="J13">
         <v>9</v>
       </c>
       <c r="K13">
+        <v>8</v>
+      </c>
+      <c r="L13">
+        <v>6</v>
+      </c>
+      <c r="M13">
+        <v>9</v>
+      </c>
+      <c r="N13">
         <v>10</v>
       </c>
-      <c r="L13">
-        <v>8</v>
-      </c>
-      <c r="M13">
-        <v>8</v>
-      </c>
-      <c r="N13">
+      <c r="O13">
+        <v>8</v>
+      </c>
+      <c r="P13">
+        <v>8</v>
+      </c>
+      <c r="Q13">
         <v>9</v>
       </c>
-      <c r="O13">
-        <v>7</v>
-      </c>
-      <c r="P13">
+      <c r="R13">
+        <v>7</v>
+      </c>
+      <c r="S13">
         <v>9</v>
       </c>
-      <c r="Q13">
-        <v>8</v>
-      </c>
-      <c r="R13">
+      <c r="T13">
+        <v>8</v>
+      </c>
+      <c r="U13">
         <v>9</v>
       </c>
-      <c r="S13">
+      <c r="V13">
         <v>10</v>
       </c>
-      <c r="T13">
-        <v>7</v>
-      </c>
-      <c r="U13">
-        <v>8</v>
-      </c>
-      <c r="V13">
-        <v>6</v>
-      </c>
       <c r="W13">
+        <v>7</v>
+      </c>
+      <c r="X13">
+        <v>8</v>
+      </c>
+      <c r="Y13">
+        <v>6</v>
+      </c>
+      <c r="Z13">
         <f t="shared" si="0"/>
         <v>154</v>
       </c>
-      <c r="X13">
+      <c r="AA13">
         <v>2</v>
       </c>
-      <c r="Y13">
+      <c r="AB13">
         <v>55</v>
       </c>
-      <c r="AA13" s="3" t="s">
-        <v>38</v>
+      <c r="AC13" s="4">
+        <f t="shared" si="1"/>
+        <v>7.7</v>
+      </c>
+      <c r="AD13" s="10" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14">
-        <v>6</v>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>17</v>
       </c>
       <c r="C14">
-        <v>8</v>
-      </c>
-      <c r="D14">
-        <v>6</v>
-      </c>
-      <c r="E14">
+        <v>6</v>
+      </c>
+      <c r="D14" s="3">
+        <v>1.99</v>
+      </c>
+      <c r="E14" s="8">
+        <v>13</v>
+      </c>
+      <c r="F14">
+        <v>8</v>
+      </c>
+      <c r="G14">
+        <v>6</v>
+      </c>
+      <c r="H14">
         <v>4</v>
       </c>
-      <c r="F14">
+      <c r="I14">
         <v>4</v>
       </c>
-      <c r="G14">
-        <v>7</v>
-      </c>
-      <c r="H14">
-        <v>6</v>
-      </c>
-      <c r="I14">
-        <v>8</v>
-      </c>
       <c r="J14">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K14">
+        <v>6</v>
+      </c>
+      <c r="L14">
+        <v>8</v>
+      </c>
+      <c r="M14">
+        <v>8</v>
+      </c>
+      <c r="N14">
         <v>9</v>
       </c>
-      <c r="L14">
-        <v>6</v>
-      </c>
-      <c r="M14">
-        <v>7</v>
-      </c>
-      <c r="N14">
-        <v>8</v>
-      </c>
       <c r="O14">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="P14">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Q14">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R14">
+        <v>8</v>
+      </c>
+      <c r="S14">
+        <v>8</v>
+      </c>
+      <c r="T14">
+        <v>7</v>
+      </c>
+      <c r="U14">
         <v>9</v>
       </c>
-      <c r="S14">
-        <v>6</v>
-      </c>
-      <c r="T14">
-        <v>8</v>
-      </c>
-      <c r="U14">
+      <c r="V14">
+        <v>6</v>
+      </c>
+      <c r="W14">
+        <v>8</v>
+      </c>
+      <c r="X14">
         <v>4</v>
       </c>
-      <c r="V14">
-        <v>5</v>
-      </c>
-      <c r="W14">
+      <c r="Y14">
+        <v>5</v>
+      </c>
+      <c r="Z14">
         <f t="shared" si="0"/>
         <v>136</v>
       </c>
-      <c r="X14">
+      <c r="AA14">
         <v>4</v>
       </c>
-      <c r="Y14">
+      <c r="AB14">
         <v>74</v>
       </c>
-      <c r="AA14" s="3"/>
+      <c r="AC14" s="4">
+        <f t="shared" si="1"/>
+        <v>6.8</v>
+      </c>
+      <c r="AD14" s="10"/>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15">
-        <v>5</v>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="C15">
-        <v>7</v>
-      </c>
-      <c r="D15">
+        <v>5</v>
+      </c>
+      <c r="D15" s="3">
+        <v>1.39</v>
+      </c>
+      <c r="E15" s="8">
+        <v>8</v>
+      </c>
+      <c r="F15">
+        <v>7</v>
+      </c>
+      <c r="G15">
         <v>3</v>
       </c>
-      <c r="E15">
-        <v>7</v>
-      </c>
-      <c r="F15">
+      <c r="H15">
+        <v>7</v>
+      </c>
+      <c r="I15">
         <v>2</v>
       </c>
-      <c r="G15">
+      <c r="J15">
         <v>4</v>
       </c>
-      <c r="H15">
-        <v>5</v>
-      </c>
-      <c r="I15">
-        <v>6</v>
-      </c>
-      <c r="J15">
-        <v>7</v>
-      </c>
       <c r="K15">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L15">
+        <v>6</v>
+      </c>
+      <c r="M15">
+        <v>7</v>
+      </c>
+      <c r="N15">
+        <v>6</v>
+      </c>
+      <c r="O15">
         <v>4</v>
       </c>
-      <c r="M15">
+      <c r="P15">
         <v>2</v>
       </c>
-      <c r="N15">
-        <v>5</v>
-      </c>
-      <c r="O15">
-        <v>7</v>
-      </c>
-      <c r="P15">
+      <c r="Q15">
+        <v>5</v>
+      </c>
+      <c r="R15">
+        <v>7</v>
+      </c>
+      <c r="S15">
         <v>4</v>
       </c>
-      <c r="Q15">
-        <v>6</v>
-      </c>
-      <c r="R15">
+      <c r="T15">
+        <v>6</v>
+      </c>
+      <c r="U15">
         <v>3</v>
       </c>
-      <c r="S15">
-        <v>5</v>
-      </c>
-      <c r="T15">
-        <v>6</v>
-      </c>
-      <c r="U15">
-        <v>7</v>
-      </c>
       <c r="V15">
+        <v>5</v>
+      </c>
+      <c r="W15">
+        <v>6</v>
+      </c>
+      <c r="X15">
+        <v>7</v>
+      </c>
+      <c r="Y15">
         <v>4</v>
       </c>
-      <c r="W15">
+      <c r="Z15">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="X15">
-        <v>6</v>
-      </c>
-      <c r="Y15">
+      <c r="AA15">
+        <v>6</v>
+      </c>
+      <c r="AB15">
         <v>89</v>
       </c>
-      <c r="AA15" s="3"/>
+      <c r="AC15" s="4">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="AD15" s="10"/>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16">
-        <v>6</v>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>19</v>
       </c>
       <c r="C16">
-        <v>7</v>
-      </c>
-      <c r="D16">
-        <v>7</v>
-      </c>
-      <c r="E16">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="D16" s="3">
+        <v>1.99</v>
+      </c>
+      <c r="E16" s="8">
+        <v>9</v>
       </c>
       <c r="F16">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G16">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H16">
+        <v>7</v>
+      </c>
+      <c r="I16">
+        <v>8</v>
+      </c>
+      <c r="J16">
+        <v>8</v>
+      </c>
+      <c r="K16">
         <v>9</v>
       </c>
-      <c r="I16">
-        <v>8</v>
-      </c>
-      <c r="J16">
-        <v>8</v>
-      </c>
-      <c r="K16">
-        <v>7</v>
-      </c>
       <c r="L16">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M16">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N16">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O16">
         <v>6</v>
       </c>
       <c r="P16">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Q16">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R16">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="S16">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="T16">
         <v>7</v>
       </c>
       <c r="U16">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="V16">
         <v>7</v>
       </c>
       <c r="W16">
+        <v>7</v>
+      </c>
+      <c r="X16">
+        <v>6</v>
+      </c>
+      <c r="Y16">
+        <v>7</v>
+      </c>
+      <c r="Z16">
         <f t="shared" si="0"/>
         <v>146</v>
       </c>
-      <c r="X16">
+      <c r="AA16">
         <v>3</v>
       </c>
-      <c r="Y16">
+      <c r="AB16">
         <v>82</v>
       </c>
-      <c r="AA16" s="3"/>
+      <c r="AC16" s="4">
+        <f t="shared" si="1"/>
+        <v>7.3</v>
+      </c>
+      <c r="AD16" s="10"/>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17">
-        <v>6</v>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A17" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>20</v>
       </c>
       <c r="C17">
-        <v>7</v>
-      </c>
-      <c r="D17">
-        <v>5</v>
-      </c>
-      <c r="E17">
+        <v>6</v>
+      </c>
+      <c r="D17" s="3">
+        <v>1.39</v>
+      </c>
+      <c r="E17" s="8">
+        <v>10</v>
+      </c>
+      <c r="F17">
+        <v>7</v>
+      </c>
+      <c r="G17">
+        <v>5</v>
+      </c>
+      <c r="H17">
         <v>3</v>
       </c>
-      <c r="F17">
-        <v>5</v>
-      </c>
-      <c r="G17">
-        <v>6</v>
-      </c>
-      <c r="H17">
-        <v>6</v>
-      </c>
       <c r="I17">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J17">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K17">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L17">
         <v>6</v>
       </c>
       <c r="M17">
+        <v>7</v>
+      </c>
+      <c r="N17">
+        <v>5</v>
+      </c>
+      <c r="O17">
+        <v>6</v>
+      </c>
+      <c r="P17">
         <v>4</v>
       </c>
-      <c r="N17">
-        <v>7</v>
-      </c>
-      <c r="O17">
+      <c r="Q17">
+        <v>7</v>
+      </c>
+      <c r="R17">
         <v>3</v>
       </c>
-      <c r="P17">
-        <v>6</v>
-      </c>
-      <c r="Q17">
-        <v>7</v>
-      </c>
-      <c r="R17">
+      <c r="S17">
+        <v>6</v>
+      </c>
+      <c r="T17">
+        <v>7</v>
+      </c>
+      <c r="U17">
         <v>4</v>
       </c>
-      <c r="S17">
-        <v>5</v>
-      </c>
-      <c r="T17">
-        <v>6</v>
-      </c>
-      <c r="U17">
-        <v>5</v>
-      </c>
       <c r="V17">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="W17">
+        <v>6</v>
+      </c>
+      <c r="X17">
+        <v>5</v>
+      </c>
+      <c r="Y17">
+        <v>6</v>
+      </c>
+      <c r="Z17">
         <f t="shared" si="0"/>
         <v>109</v>
       </c>
-      <c r="X17">
-        <v>8</v>
-      </c>
-      <c r="Y17">
+      <c r="AA17">
+        <v>8</v>
+      </c>
+      <c r="AB17">
         <v>94</v>
       </c>
-      <c r="AA17" s="3" t="s">
-        <v>38</v>
+      <c r="AC17" s="4">
+        <f t="shared" si="1"/>
+        <v>5.45</v>
+      </c>
+      <c r="AD17" s="10" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18">
-        <v>5</v>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="C18">
-        <v>6</v>
-      </c>
-      <c r="D18">
-        <v>7</v>
-      </c>
-      <c r="E18">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="D18" s="3">
+        <v>1.39</v>
+      </c>
+      <c r="E18" s="8">
+        <v>9</v>
       </c>
       <c r="F18">
         <v>6</v>
@@ -2368,185 +2790,211 @@
         <v>5</v>
       </c>
       <c r="I18">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J18">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K18">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L18">
         <v>7</v>
       </c>
       <c r="M18">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N18">
         <v>7</v>
       </c>
       <c r="O18">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="P18">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q18">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R18">
         <v>5</v>
       </c>
       <c r="S18">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T18">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="U18">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V18">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="W18">
+        <v>7</v>
+      </c>
+      <c r="X18">
+        <v>6</v>
+      </c>
+      <c r="Y18">
+        <v>5</v>
+      </c>
+      <c r="Z18">
         <f t="shared" si="0"/>
         <v>125</v>
       </c>
-      <c r="X18">
+      <c r="AA18">
         <v>3</v>
       </c>
-      <c r="Y18">
+      <c r="AB18">
         <v>56</v>
       </c>
-      <c r="AA18" s="3"/>
+      <c r="AC18" s="4">
+        <f t="shared" si="1"/>
+        <v>6.25</v>
+      </c>
+      <c r="AD18" s="10"/>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19">
-        <v>5</v>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>22</v>
       </c>
       <c r="C19">
-        <v>6</v>
-      </c>
-      <c r="D19">
-        <v>6</v>
-      </c>
-      <c r="E19">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="D19" s="3">
+        <v>1.99</v>
+      </c>
+      <c r="E19" s="8">
+        <v>17</v>
       </c>
       <c r="F19">
+        <v>6</v>
+      </c>
+      <c r="G19">
+        <v>6</v>
+      </c>
+      <c r="H19">
+        <v>6</v>
+      </c>
+      <c r="I19">
         <v>4</v>
       </c>
-      <c r="G19">
-        <v>6</v>
-      </c>
-      <c r="H19">
-        <v>7</v>
-      </c>
-      <c r="I19">
-        <v>5</v>
-      </c>
       <c r="J19">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K19">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L19">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M19">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="N19">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O19">
         <v>6</v>
       </c>
       <c r="P19">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q19">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="R19">
+        <v>6</v>
+      </c>
+      <c r="S19">
+        <v>6</v>
+      </c>
+      <c r="T19">
+        <v>5</v>
+      </c>
+      <c r="U19">
         <v>4</v>
       </c>
-      <c r="S19">
-        <v>6</v>
-      </c>
-      <c r="T19">
-        <v>6</v>
-      </c>
-      <c r="U19">
-        <v>5</v>
-      </c>
       <c r="V19">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="W19">
+        <v>6</v>
+      </c>
+      <c r="X19">
+        <v>5</v>
+      </c>
+      <c r="Y19">
+        <v>5</v>
+      </c>
+      <c r="Z19">
         <f t="shared" si="0"/>
         <v>114</v>
       </c>
-      <c r="X19">
-        <v>6</v>
-      </c>
-      <c r="Y19">
+      <c r="AA19">
+        <v>6</v>
+      </c>
+      <c r="AB19">
         <v>91</v>
       </c>
-      <c r="AA19" s="3" t="s">
-        <v>38</v>
+      <c r="AC19" s="4">
+        <f t="shared" si="1"/>
+        <v>5.7</v>
+      </c>
+      <c r="AD19" s="10" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20">
-        <v>5</v>
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>23</v>
       </c>
       <c r="C20">
-        <v>6</v>
-      </c>
-      <c r="D20">
+        <v>5</v>
+      </c>
+      <c r="D20" s="3">
+        <v>1.99</v>
+      </c>
+      <c r="E20" s="8">
+        <v>5</v>
+      </c>
+      <c r="F20">
+        <v>6</v>
+      </c>
+      <c r="G20">
         <v>4</v>
       </c>
-      <c r="E20">
-        <v>7</v>
-      </c>
-      <c r="F20">
+      <c r="H20">
+        <v>7</v>
+      </c>
+      <c r="I20">
         <v>4</v>
       </c>
-      <c r="G20">
-        <v>6</v>
-      </c>
-      <c r="H20">
-        <v>6</v>
-      </c>
-      <c r="I20">
-        <v>8</v>
-      </c>
       <c r="J20">
+        <v>6</v>
+      </c>
+      <c r="K20">
+        <v>6</v>
+      </c>
+      <c r="L20">
+        <v>8</v>
+      </c>
+      <c r="M20">
         <v>4</v>
       </c>
-      <c r="K20">
-        <v>7</v>
-      </c>
-      <c r="L20">
-        <v>7</v>
-      </c>
-      <c r="M20">
-        <v>5</v>
-      </c>
       <c r="N20">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O20">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="P20">
         <v>5</v>
@@ -2555,162 +3003,188 @@
         <v>6</v>
       </c>
       <c r="R20">
+        <v>8</v>
+      </c>
+      <c r="S20">
+        <v>5</v>
+      </c>
+      <c r="T20">
+        <v>6</v>
+      </c>
+      <c r="U20">
         <v>4</v>
       </c>
-      <c r="S20">
-        <v>7</v>
-      </c>
-      <c r="T20">
-        <v>5</v>
-      </c>
-      <c r="U20">
-        <v>7</v>
-      </c>
       <c r="V20">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="W20">
+        <v>5</v>
+      </c>
+      <c r="X20">
+        <v>7</v>
+      </c>
+      <c r="Y20">
+        <v>6</v>
+      </c>
+      <c r="Z20">
         <f t="shared" si="0"/>
         <v>118</v>
       </c>
-      <c r="X20">
+      <c r="AA20">
         <v>4</v>
       </c>
-      <c r="Y20">
+      <c r="AB20">
         <v>78</v>
       </c>
-      <c r="AA20" s="3"/>
+      <c r="AC20" s="4">
+        <f t="shared" si="1"/>
+        <v>5.9</v>
+      </c>
+      <c r="AD20" s="10"/>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21">
-        <v>5</v>
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A21" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>24</v>
       </c>
       <c r="C21">
-        <v>6</v>
-      </c>
-      <c r="D21">
-        <v>5</v>
-      </c>
-      <c r="E21">
+        <v>5</v>
+      </c>
+      <c r="D21" s="3">
+        <v>1.99</v>
+      </c>
+      <c r="E21" s="8">
+        <v>17</v>
+      </c>
+      <c r="F21">
+        <v>6</v>
+      </c>
+      <c r="G21">
+        <v>5</v>
+      </c>
+      <c r="H21">
         <v>2</v>
       </c>
-      <c r="F21">
+      <c r="I21">
         <v>1</v>
       </c>
-      <c r="G21">
-        <v>6</v>
-      </c>
-      <c r="H21">
+      <c r="J21">
+        <v>6</v>
+      </c>
+      <c r="K21">
         <v>4</v>
       </c>
-      <c r="I21">
-        <v>6</v>
-      </c>
-      <c r="J21">
-        <v>6</v>
-      </c>
-      <c r="K21">
-        <v>5</v>
-      </c>
       <c r="L21">
         <v>6</v>
       </c>
       <c r="M21">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N21">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O21">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P21">
+        <v>5</v>
+      </c>
+      <c r="Q21">
+        <v>6</v>
+      </c>
+      <c r="R21">
+        <v>5</v>
+      </c>
+      <c r="S21">
         <v>4</v>
       </c>
-      <c r="Q21">
-        <v>5</v>
-      </c>
-      <c r="R21">
+      <c r="T21">
+        <v>5</v>
+      </c>
+      <c r="U21">
         <v>2</v>
       </c>
-      <c r="S21">
-        <v>6</v>
-      </c>
-      <c r="T21">
-        <v>5</v>
-      </c>
-      <c r="U21">
+      <c r="V21">
+        <v>6</v>
+      </c>
+      <c r="W21">
+        <v>5</v>
+      </c>
+      <c r="X21">
         <v>3</v>
       </c>
-      <c r="V21">
-        <v>5</v>
-      </c>
-      <c r="W21">
+      <c r="Y21">
+        <v>5</v>
+      </c>
+      <c r="Z21">
         <f t="shared" si="0"/>
         <v>93</v>
       </c>
-      <c r="X21">
+      <c r="AA21">
         <v>3</v>
       </c>
-      <c r="Y21">
+      <c r="AB21">
         <v>61</v>
       </c>
-      <c r="AA21" s="3"/>
+      <c r="AC21" s="4">
+        <f t="shared" si="1"/>
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="AD21" s="10"/>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22">
-        <v>5</v>
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>25</v>
       </c>
       <c r="C22">
         <v>5</v>
       </c>
-      <c r="D22">
-        <v>4</v>
-      </c>
-      <c r="E22">
-        <v>3</v>
+      <c r="D22" s="3">
+        <v>1.39</v>
+      </c>
+      <c r="E22" s="8">
+        <v>8</v>
       </c>
       <c r="F22">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G22">
         <v>4</v>
       </c>
       <c r="H22">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I22">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J22">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K22">
         <v>5</v>
       </c>
       <c r="L22">
+        <v>5</v>
+      </c>
+      <c r="M22">
+        <v>7</v>
+      </c>
+      <c r="N22">
+        <v>5</v>
+      </c>
+      <c r="O22">
         <v>2</v>
       </c>
-      <c r="M22">
+      <c r="P22">
         <v>4</v>
       </c>
-      <c r="N22">
-        <v>5</v>
-      </c>
-      <c r="O22">
-        <v>4</v>
-      </c>
-      <c r="P22">
-        <v>5</v>
-      </c>
       <c r="Q22">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R22">
         <v>4</v>
@@ -2722,51 +3196,64 @@
         <v>3</v>
       </c>
       <c r="U22">
+        <v>4</v>
+      </c>
+      <c r="V22">
+        <v>5</v>
+      </c>
+      <c r="W22">
         <v>3</v>
       </c>
-      <c r="V22">
+      <c r="X22">
+        <v>3</v>
+      </c>
+      <c r="Y22">
         <v>4</v>
       </c>
-      <c r="W22">
+      <c r="Z22">
         <f t="shared" si="0"/>
         <v>82</v>
       </c>
-      <c r="X22">
-        <v>5</v>
-      </c>
-      <c r="Y22">
+      <c r="AA22">
+        <v>5</v>
+      </c>
+      <c r="AB22">
         <v>42</v>
       </c>
-      <c r="AA22" s="3"/>
+      <c r="AC22" s="4">
+        <f t="shared" si="1"/>
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="AD22" s="10"/>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23">
-        <v>6</v>
+    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A23" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>26</v>
       </c>
       <c r="C23">
-        <v>5</v>
-      </c>
-      <c r="D23">
-        <v>7</v>
-      </c>
-      <c r="E23">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="D23" s="3">
+        <v>1.99</v>
+      </c>
+      <c r="E23" s="8">
+        <v>18</v>
       </c>
       <c r="F23">
+        <v>5</v>
+      </c>
+      <c r="G23">
+        <v>7</v>
+      </c>
+      <c r="H23">
+        <v>5</v>
+      </c>
+      <c r="I23">
         <v>9</v>
       </c>
-      <c r="G23">
-        <v>8</v>
-      </c>
-      <c r="H23">
-        <v>7</v>
-      </c>
-      <c r="I23">
-        <v>7</v>
-      </c>
       <c r="J23">
         <v>8</v>
       </c>
@@ -2774,13 +3261,13 @@
         <v>7</v>
       </c>
       <c r="L23">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M23">
         <v>8</v>
       </c>
       <c r="N23">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O23">
         <v>6</v>
@@ -2789,143 +3276,169 @@
         <v>8</v>
       </c>
       <c r="Q23">
+        <v>8</v>
+      </c>
+      <c r="R23">
+        <v>6</v>
+      </c>
+      <c r="S23">
+        <v>8</v>
+      </c>
+      <c r="T23">
         <v>9</v>
       </c>
-      <c r="R23">
-        <v>7</v>
-      </c>
-      <c r="S23">
-        <v>5</v>
-      </c>
-      <c r="T23">
-        <v>7</v>
-      </c>
       <c r="U23">
         <v>7</v>
       </c>
       <c r="V23">
+        <v>5</v>
+      </c>
+      <c r="W23">
+        <v>7</v>
+      </c>
+      <c r="X23">
+        <v>7</v>
+      </c>
+      <c r="Y23">
         <v>3</v>
       </c>
-      <c r="W23">
+      <c r="Z23">
         <f t="shared" si="0"/>
         <v>137</v>
       </c>
-      <c r="X23">
-        <v>5</v>
-      </c>
-      <c r="Y23">
+      <c r="AA23">
+        <v>5</v>
+      </c>
+      <c r="AB23">
         <v>95</v>
       </c>
-      <c r="AA23" s="3" t="s">
-        <v>38</v>
+      <c r="AC23" s="4">
+        <f t="shared" si="1"/>
+        <v>6.85</v>
+      </c>
+      <c r="AD23" s="10" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A24" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24">
         <v>4</v>
       </c>
-      <c r="C24">
-        <v>5</v>
-      </c>
-      <c r="D24">
-        <v>6</v>
-      </c>
-      <c r="E24">
+      <c r="D24" s="3">
+        <v>1.99</v>
+      </c>
+      <c r="E24" s="8">
+        <v>15</v>
+      </c>
+      <c r="F24">
+        <v>5</v>
+      </c>
+      <c r="G24">
+        <v>6</v>
+      </c>
+      <c r="H24">
         <v>2</v>
       </c>
-      <c r="F24">
+      <c r="I24">
         <v>4</v>
       </c>
-      <c r="G24">
-        <v>5</v>
-      </c>
-      <c r="H24">
+      <c r="J24">
+        <v>5</v>
+      </c>
+      <c r="K24">
         <v>4</v>
       </c>
-      <c r="I24">
-        <v>5</v>
-      </c>
-      <c r="J24">
-        <v>6</v>
-      </c>
-      <c r="K24">
-        <v>6</v>
-      </c>
       <c r="L24">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M24">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N24">
         <v>6</v>
       </c>
       <c r="O24">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P24">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q24">
+        <v>6</v>
+      </c>
+      <c r="R24">
+        <v>5</v>
+      </c>
+      <c r="S24">
+        <v>6</v>
+      </c>
+      <c r="T24">
         <v>4</v>
       </c>
-      <c r="R24">
+      <c r="U24">
         <v>4</v>
       </c>
-      <c r="S24">
-        <v>5</v>
-      </c>
-      <c r="T24">
+      <c r="V24">
+        <v>5</v>
+      </c>
+      <c r="W24">
         <v>3</v>
       </c>
-      <c r="U24">
-        <v>5</v>
-      </c>
-      <c r="V24">
-        <v>6</v>
-      </c>
-      <c r="W24">
+      <c r="X24">
+        <v>5</v>
+      </c>
+      <c r="Y24">
+        <v>6</v>
+      </c>
+      <c r="Z24">
         <f t="shared" si="0"/>
         <v>98</v>
       </c>
-      <c r="X24">
+      <c r="AA24">
         <v>3</v>
       </c>
-      <c r="Y24">
+      <c r="AB24">
         <v>44</v>
       </c>
-      <c r="AA24" s="3"/>
+      <c r="AC24" s="4">
+        <f t="shared" si="1"/>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="AD24" s="10"/>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B25" s="1">
-        <v>1</v>
+    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A25" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>30</v>
       </c>
       <c r="C25" s="1">
         <v>1</v>
       </c>
-      <c r="D25" s="1">
-        <v>0</v>
-      </c>
-      <c r="E25" s="1">
-        <v>0</v>
+      <c r="D25" s="3">
+        <v>1.39</v>
+      </c>
+      <c r="E25" s="8">
+        <v>5</v>
       </c>
       <c r="F25" s="1">
         <v>1</v>
       </c>
       <c r="G25" s="1">
+        <v>0</v>
+      </c>
+      <c r="H25" s="1">
+        <v>0</v>
+      </c>
+      <c r="I25" s="1">
         <v>1</v>
-      </c>
-      <c r="H25" s="1">
-        <v>0</v>
-      </c>
-      <c r="I25" s="1">
-        <v>0</v>
       </c>
       <c r="J25" s="1">
         <v>1</v>
@@ -2943,10 +3456,10 @@
         <v>0</v>
       </c>
       <c r="O25" s="1">
+        <v>0</v>
+      </c>
+      <c r="P25" s="1">
         <v>1</v>
-      </c>
-      <c r="P25" s="1">
-        <v>0</v>
       </c>
       <c r="Q25" s="1">
         <v>0</v>
@@ -2958,74 +3471,87 @@
         <v>0</v>
       </c>
       <c r="T25" s="1">
+        <v>0</v>
+      </c>
+      <c r="U25" s="1">
         <v>1</v>
       </c>
-      <c r="U25" s="1">
-        <v>0</v>
-      </c>
       <c r="V25" s="1">
         <v>0</v>
       </c>
-      <c r="W25">
+      <c r="W25" s="1">
+        <v>1</v>
+      </c>
+      <c r="X25" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="7">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="X25" s="1">
+      <c r="AA25" s="5">
         <v>3</v>
       </c>
-      <c r="Y25" s="1">
+      <c r="AB25" s="5">
         <v>19</v>
       </c>
-      <c r="AA25" s="3"/>
+      <c r="AC25" s="6">
+        <f t="shared" si="1"/>
+        <v>0.4</v>
+      </c>
+      <c r="AD25" s="10"/>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B26" s="1">
-        <v>1</v>
+    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A26" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="C26" s="1">
         <v>1</v>
       </c>
-      <c r="D26" s="1">
-        <v>0</v>
-      </c>
-      <c r="E26" s="1">
-        <v>0</v>
+      <c r="D26" s="3">
+        <v>1.99</v>
+      </c>
+      <c r="E26" s="8">
+        <v>8</v>
       </c>
       <c r="F26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" s="1">
+        <v>0</v>
+      </c>
+      <c r="H26" s="1">
+        <v>0</v>
+      </c>
+      <c r="I26" s="1">
+        <v>0</v>
+      </c>
+      <c r="J26" s="1">
         <v>1</v>
       </c>
-      <c r="H26" s="1">
-        <v>0</v>
-      </c>
-      <c r="I26" s="1">
+      <c r="K26" s="1">
+        <v>0</v>
+      </c>
+      <c r="L26" s="1">
         <v>1</v>
       </c>
-      <c r="J26" s="1">
-        <v>0</v>
-      </c>
-      <c r="K26" s="1">
-        <v>0</v>
-      </c>
-      <c r="L26" s="1">
-        <v>0</v>
-      </c>
       <c r="M26" s="1">
+        <v>0</v>
+      </c>
+      <c r="N26" s="1">
+        <v>0</v>
+      </c>
+      <c r="O26" s="1">
+        <v>0</v>
+      </c>
+      <c r="P26" s="1">
         <v>1</v>
-      </c>
-      <c r="N26" s="1">
-        <v>1</v>
-      </c>
-      <c r="O26" s="1">
-        <v>0</v>
-      </c>
-      <c r="P26" s="1">
-        <v>0</v>
       </c>
       <c r="Q26" s="1">
         <v>1</v>
@@ -3037,54 +3563,67 @@
         <v>0</v>
       </c>
       <c r="T26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U26" s="1">
+        <v>0</v>
+      </c>
+      <c r="V26" s="1">
+        <v>0</v>
+      </c>
+      <c r="W26" s="1">
+        <v>0</v>
+      </c>
+      <c r="X26" s="1">
         <v>1</v>
       </c>
-      <c r="V26" s="1">
-        <v>0</v>
-      </c>
-      <c r="W26">
+      <c r="Y26" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="7">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="X26" s="1">
-        <v>5</v>
-      </c>
-      <c r="Y26" s="1">
+      <c r="AA26" s="5">
+        <v>5</v>
+      </c>
+      <c r="AB26" s="5">
         <v>38</v>
       </c>
-      <c r="AA26" s="3"/>
+      <c r="AC26" s="6">
+        <f t="shared" si="1"/>
+        <v>0.35</v>
+      </c>
+      <c r="AD26" s="10"/>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B27" s="1">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A27" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" s="1">
         <v>2</v>
       </c>
-      <c r="C27" s="1">
-        <v>0</v>
-      </c>
-      <c r="D27" s="1">
-        <v>0</v>
-      </c>
-      <c r="E27" s="1">
-        <v>0</v>
+      <c r="D27" s="3">
+        <v>1.99</v>
+      </c>
+      <c r="E27" s="8">
+        <v>9</v>
       </c>
       <c r="F27" s="1">
+        <v>0</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0</v>
+      </c>
+      <c r="H27" s="1">
+        <v>0</v>
+      </c>
+      <c r="I27" s="1">
         <v>1</v>
       </c>
-      <c r="G27" s="1">
-        <v>0</v>
-      </c>
-      <c r="H27" s="1">
-        <v>0</v>
-      </c>
-      <c r="I27" s="1">
-        <v>0</v>
-      </c>
       <c r="J27" s="1">
         <v>0</v>
       </c>
@@ -3092,7 +3631,7 @@
         <v>0</v>
       </c>
       <c r="L27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M27" s="1">
         <v>0</v>
@@ -3107,86 +3646,99 @@
         <v>0</v>
       </c>
       <c r="Q27" s="1">
+        <v>0</v>
+      </c>
+      <c r="R27" s="1">
         <v>1</v>
       </c>
-      <c r="R27" s="1">
-        <v>0</v>
-      </c>
       <c r="S27" s="1">
         <v>0</v>
       </c>
       <c r="T27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U27" s="1">
         <v>0</v>
       </c>
       <c r="V27" s="1">
+        <v>0</v>
+      </c>
+      <c r="W27" s="1">
+        <v>0</v>
+      </c>
+      <c r="X27" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="1">
         <v>1</v>
       </c>
-      <c r="W27">
+      <c r="Z27" s="7">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="X27" s="1">
-        <v>5</v>
-      </c>
-      <c r="Y27" s="1">
+      <c r="AA27" s="5">
+        <v>5</v>
+      </c>
+      <c r="AB27" s="5">
         <v>71</v>
       </c>
-      <c r="AA27" s="3"/>
+      <c r="AC27" s="6">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+      <c r="AD27" s="10"/>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B28" s="1">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A28" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" s="1">
         <v>2</v>
       </c>
-      <c r="C28" s="1">
-        <v>0</v>
-      </c>
-      <c r="D28" s="1">
+      <c r="D28" s="3">
+        <v>1.39</v>
+      </c>
+      <c r="E28" s="8">
+        <v>12</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0</v>
+      </c>
+      <c r="G28" s="1">
         <v>1</v>
       </c>
-      <c r="E28" s="1">
-        <v>0</v>
-      </c>
-      <c r="F28" s="1">
-        <v>0</v>
-      </c>
-      <c r="G28" s="1">
-        <v>0</v>
-      </c>
       <c r="H28" s="1">
+        <v>0</v>
+      </c>
+      <c r="I28" s="1">
+        <v>0</v>
+      </c>
+      <c r="J28" s="1">
+        <v>0</v>
+      </c>
+      <c r="K28" s="1">
         <v>1</v>
       </c>
-      <c r="I28" s="1">
-        <v>0</v>
-      </c>
-      <c r="J28" s="1">
-        <v>0</v>
-      </c>
-      <c r="K28" s="1">
-        <v>0</v>
-      </c>
       <c r="L28" s="1">
         <v>0</v>
       </c>
       <c r="M28" s="1">
+        <v>0</v>
+      </c>
+      <c r="N28" s="1">
+        <v>0</v>
+      </c>
+      <c r="O28" s="1">
+        <v>0</v>
+      </c>
+      <c r="P28" s="1">
         <v>2</v>
       </c>
-      <c r="N28" s="1">
-        <v>0</v>
-      </c>
-      <c r="O28" s="1">
-        <v>0</v>
-      </c>
-      <c r="P28" s="1">
-        <v>1</v>
-      </c>
       <c r="Q28" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R28" s="1">
         <v>0</v>
@@ -3195,25 +3747,38 @@
         <v>1</v>
       </c>
       <c r="T28" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U28" s="1">
+        <v>0</v>
+      </c>
+      <c r="V28" s="1">
         <v>1</v>
       </c>
-      <c r="V28" s="1">
-        <v>0</v>
-      </c>
-      <c r="W28">
+      <c r="W28" s="1">
+        <v>0</v>
+      </c>
+      <c r="X28" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y28" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="7">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="X28" s="1">
-        <v>7</v>
-      </c>
-      <c r="Y28" s="1">
+      <c r="AA28" s="5">
+        <v>7</v>
+      </c>
+      <c r="AB28" s="5">
         <v>91</v>
       </c>
-      <c r="AA28" s="3"/>
+      <c r="AC28" s="6">
+        <f t="shared" si="1"/>
+        <v>0.45</v>
+      </c>
+      <c r="AD28" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
